--- a/web/reportes/reporteColor.xlsx
+++ b/web/reportes/reporteColor.xlsx
@@ -321,7 +321,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11447986" name="Picture">
+        <xdr:cNvPr id="29427024" name="Picture">
 </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
@@ -380,7 +380,7 @@
       <c r="H1" s="1" t="inlineStr"/>
       <c r="I1" s="1" t="inlineStr"/>
       <c r="J1" s="2">
-        <v>41544.56496527791</v>
+        <v>41549.82762731472</v>
       </c>
       <c r="K1" s="3" t="inlineStr"/>
       <c r="L1" s="1" t="inlineStr"/>
